--- a/Schedulator/SoftwareAndCompCourseList.xlsx
+++ b/Schedulator/SoftwareAndCompCourseList.xlsx
@@ -19943,8 +19943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedulator/SoftwareAndCompCourseList.xlsx
+++ b/Schedulator/SoftwareAndCompCourseList.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="COMPUTER SCIENCE" sheetId="1" r:id="rId1"/>
-    <sheet name="COOP WORK TERM (COMP SCI)" sheetId="2" r:id="rId2"/>
-    <sheet name="COOP WORK TERM (ENGINEERING)" sheetId="3" r:id="rId3"/>
-    <sheet name="ELECT. ENGINEERING" sheetId="4" r:id="rId4"/>
-    <sheet name="ENGING. COMP SCI" sheetId="5" r:id="rId5"/>
-    <sheet name="ENGINEERING" sheetId="6" r:id="rId6"/>
-    <sheet name="SOFTWARE ENGINEERING" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="COOP WORK TERM (COMP SCI)" sheetId="2" r:id="rId3"/>
+    <sheet name="COOP WORK TERM (ENGINEERING)" sheetId="3" r:id="rId4"/>
+    <sheet name="ELECT. ENGINEERING" sheetId="4" r:id="rId5"/>
+    <sheet name="ENGING. COMP SCI" sheetId="5" r:id="rId6"/>
+    <sheet name="ENGINEERING" sheetId="6" r:id="rId7"/>
+    <sheet name="SOFTWARE ENGINEERING" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5010" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5078" uniqueCount="1159">
   <si>
     <t>COMP 107</t>
   </si>
@@ -3489,19 +3490,46 @@
   </si>
   <si>
     <t>Students who have received credit for ENGR 275 may not take this course for credit. Students in Electrical Engineering or in Computer Engineering are not permitted to take this course.</t>
+  </si>
+  <si>
+    <t>MECH 221</t>
+  </si>
+  <si>
+    <t>MATERIALS SCIENCE</t>
+  </si>
+  <si>
+    <t>CHEM 205 (CEGEP Chemistry 101).</t>
+  </si>
+  <si>
+    <t>SGW MB-5.265</t>
+  </si>
+  <si>
+    <t>ABOU ZIKI, JANA</t>
+  </si>
+  <si>
+    <t>NOFAR, MOHAMMADREZA</t>
+  </si>
+  <si>
+    <t>Tut XB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3524,8 +3552,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3836,8 +3866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E437"/>
   <sheetViews>
-    <sheetView topLeftCell="A369" workbookViewId="0">
-      <selection activeCell="A436" sqref="A436"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9207,6 +9237,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
@@ -10021,11 +10063,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A106" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
@@ -11448,7 +11490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E78"/>
   <sheetViews>
@@ -12468,12 +12510,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13541,12 +13583,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E476"/>
+  <dimension ref="A1:E494"/>
   <sheetViews>
-    <sheetView topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="B469" sqref="B469"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="B485" sqref="B485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19934,17 +19976,259 @@
         <v>687</v>
       </c>
     </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E477" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>17</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>14</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C480" t="s">
+        <v>185</v>
+      </c>
+      <c r="D480" t="s">
+        <v>165</v>
+      </c>
+      <c r="E480" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>25</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C481" t="s">
+        <v>552</v>
+      </c>
+      <c r="D481" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>14</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C482" t="s">
+        <v>552</v>
+      </c>
+      <c r="D482" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>14</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C483" t="s">
+        <v>185</v>
+      </c>
+      <c r="D483" t="s">
+        <v>573</v>
+      </c>
+      <c r="E483" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>14</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C484" t="s">
+        <v>552</v>
+      </c>
+      <c r="D484" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>14</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C485" t="s">
+        <v>552</v>
+      </c>
+      <c r="D485" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>14</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C486" t="s">
+        <v>234</v>
+      </c>
+      <c r="D486" t="s">
+        <v>627</v>
+      </c>
+      <c r="E486" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>14</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C487" t="s">
+        <v>552</v>
+      </c>
+      <c r="D487" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>14</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C488" t="s">
+        <v>552</v>
+      </c>
+      <c r="D488" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>29</v>
+      </c>
+      <c r="B489" s="1"/>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>30</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C490" t="s">
+        <v>185</v>
+      </c>
+      <c r="D490" t="s">
+        <v>96</v>
+      </c>
+      <c r="E490" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>30</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C491" t="s">
+        <v>552</v>
+      </c>
+      <c r="D491" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>30</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C492" t="s">
+        <v>552</v>
+      </c>
+      <c r="D492" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>30</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C493" t="s">
+        <v>185</v>
+      </c>
+      <c r="D493" t="s">
+        <v>235</v>
+      </c>
+      <c r="E493" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>30</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C494" t="s">
+        <v>552</v>
+      </c>
+      <c r="D494" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedulator/SoftwareAndCompCourseList.xlsx
+++ b/Schedulator/SoftwareAndCompCourseList.xlsx
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5078" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="1197">
   <si>
     <t>COMP 107</t>
   </si>
@@ -3511,6 +3511,120 @@
   </si>
   <si>
     <t>Tut XB</t>
+  </si>
+  <si>
+    <t>AERO 417</t>
+  </si>
+  <si>
+    <t>STNDRDS/REGUL N/CERTIF N</t>
+  </si>
+  <si>
+    <t>Students who have received credit for ENGR 417 may not take this course for credit.</t>
+  </si>
+  <si>
+    <t>AERO 431</t>
+  </si>
+  <si>
+    <t>PRINCIPLES OF AEROELASTICITY</t>
+  </si>
+  <si>
+    <t>ENGR 243, 311.</t>
+  </si>
+  <si>
+    <t>Students who have received credit for MECH 431 may not take this course for credit</t>
+  </si>
+  <si>
+    <t>AERO 462</t>
+  </si>
+  <si>
+    <t>TURBOMACHINERY+PROPULSION</t>
+  </si>
+  <si>
+    <t>MECH 351, 361</t>
+  </si>
+  <si>
+    <t>Students who have received credit for MECH 462may not take this course for credit</t>
+  </si>
+  <si>
+    <t>AERO 464</t>
+  </si>
+  <si>
+    <t>AERODYNAMICS</t>
+  </si>
+  <si>
+    <t>MECH 361</t>
+  </si>
+  <si>
+    <t>Student who have received credit for MECH 464 may not take this course for credit</t>
+  </si>
+  <si>
+    <t>AERO 465</t>
+  </si>
+  <si>
+    <t>GAS TURBINE DESIGN</t>
+  </si>
+  <si>
+    <t>Students who received credit for MECH 465 may not take this course for credit.</t>
+  </si>
+  <si>
+    <t>GIRGIS, SAMI</t>
+  </si>
+  <si>
+    <t>AERO 480</t>
+  </si>
+  <si>
+    <t>FLIGHT CONTROL SYSTEMS</t>
+  </si>
+  <si>
+    <t>AERO 371 or ELEC 372 or MECH 371 or SOEN 385</t>
+  </si>
+  <si>
+    <t>Students who received credit for ELEC 415 or MECH 480 may not take this course for credit.</t>
+  </si>
+  <si>
+    <t>M------ (11:45-13:35) Week(1)</t>
+  </si>
+  <si>
+    <t>SGW H-0011</t>
+  </si>
+  <si>
+    <t>M------ (11:45-13:35) Week(2)</t>
+  </si>
+  <si>
+    <t>--W---- (12:05-13:55) Week(1)</t>
+  </si>
+  <si>
+    <t>--W---- (12:05-13:55) Week(2)</t>
+  </si>
+  <si>
+    <t>--W---- (09:45-11:35) Week(1)</t>
+  </si>
+  <si>
+    <t>--W---- (09:45-11:35) Week(2)</t>
+  </si>
+  <si>
+    <t>--W---- (14:45-16:35) Week(1)</t>
+  </si>
+  <si>
+    <t>Lab XO</t>
+  </si>
+  <si>
+    <t>COEN 320</t>
+  </si>
+  <si>
+    <t>INTRO TO REAL-TIME SYSTEMS</t>
+  </si>
+  <si>
+    <t>COEN 346 or COMP 346.</t>
+  </si>
+  <si>
+    <t>--W---- (14:45-15:35)</t>
+  </si>
+  <si>
+    <t>SGW H-863</t>
+  </si>
+  <si>
+    <t>Tut SA</t>
   </si>
 </sst>
 </file>
@@ -13585,10 +13699,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E494"/>
+  <dimension ref="A1:E542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="B485" sqref="B485"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="E499" sqref="E499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20217,6 +20331,546 @@
         <v>63</v>
       </c>
     </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E495" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>19</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>14</v>
+      </c>
+      <c r="B498" t="s">
+        <v>996</v>
+      </c>
+      <c r="C498" t="s">
+        <v>177</v>
+      </c>
+      <c r="D498" t="s">
+        <v>670</v>
+      </c>
+      <c r="E498" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E499" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>17</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>19</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>14</v>
+      </c>
+      <c r="B503" t="s">
+        <v>332</v>
+      </c>
+      <c r="C503" t="s">
+        <v>95</v>
+      </c>
+      <c r="D503" t="s">
+        <v>230</v>
+      </c>
+      <c r="E503" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E504" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>17</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>19</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>14</v>
+      </c>
+      <c r="B508" t="s">
+        <v>996</v>
+      </c>
+      <c r="C508" t="s">
+        <v>22</v>
+      </c>
+      <c r="D508" t="s">
+        <v>758</v>
+      </c>
+      <c r="E508" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>25</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C509" t="s">
+        <v>27</v>
+      </c>
+      <c r="D509" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E510" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>17</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>19</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>29</v>
+      </c>
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>30</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C514" t="s">
+        <v>22</v>
+      </c>
+      <c r="D514" t="s">
+        <v>670</v>
+      </c>
+      <c r="E514" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>33</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C515" t="s">
+        <v>27</v>
+      </c>
+      <c r="D515" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>33</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C516" t="s">
+        <v>27</v>
+      </c>
+      <c r="D516" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E517" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>17</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>19</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>29</v>
+      </c>
+      <c r="B520" s="1"/>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>30</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C521" t="s">
+        <v>121</v>
+      </c>
+      <c r="D521" t="s">
+        <v>104</v>
+      </c>
+      <c r="E521" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>33</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C522" t="s">
+        <v>7</v>
+      </c>
+      <c r="D522" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>33</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C523" t="s">
+        <v>7</v>
+      </c>
+      <c r="D523" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>33</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C524" t="s">
+        <v>7</v>
+      </c>
+      <c r="D524" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>33</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C525" t="s">
+        <v>7</v>
+      </c>
+      <c r="D525" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E526" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>17</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>19</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>13</v>
+      </c>
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>14</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C530" t="s">
+        <v>121</v>
+      </c>
+      <c r="D530" t="s">
+        <v>117</v>
+      </c>
+      <c r="E530" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>25</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C531" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D531" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>25</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C532" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D532" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>25</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C533" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D533" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>25</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C534" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D534" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>25</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C535" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D535" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>25</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C536" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D536" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>25</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C537" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D537" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E538" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>17</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>14</v>
+      </c>
+      <c r="B541" t="s">
+        <v>112</v>
+      </c>
+      <c r="C541" t="s">
+        <v>262</v>
+      </c>
+      <c r="D541" t="s">
+        <v>641</v>
+      </c>
+      <c r="E541" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>14</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C542" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D542" t="s">
+        <v>1195</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -20227,8 +20881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E156"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Schedulator/SoftwareAndCompCourseList.xlsx
+++ b/Schedulator/SoftwareAndCompCourseList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="COMPUTER SCIENCE" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5225" uniqueCount="1197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5239" uniqueCount="1196">
   <si>
     <t>COMP 107</t>
   </si>
@@ -1966,9 +1966,6 @@
   </si>
   <si>
     <t>SGW H-507</t>
-  </si>
-  <si>
-    <t>Fall&amp;Winter</t>
   </si>
   <si>
     <t>/3</t>
@@ -11849,7 +11846,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C20" t="s">
         <v>563</v>
@@ -11894,7 +11891,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C23" t="s">
         <v>563</v>
@@ -11971,7 +11968,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C30" t="s">
         <v>577</v>
@@ -11985,7 +11982,7 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C31" t="s">
         <v>579</v>
@@ -11999,7 +11996,7 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C32" t="s">
         <v>580</v>
@@ -12027,7 +12024,7 @@
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C34" t="s">
         <v>582</v>
@@ -12041,7 +12038,7 @@
         <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C35" t="s">
         <v>583</v>
@@ -12055,7 +12052,7 @@
         <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C36" t="s">
         <v>584</v>
@@ -12161,7 +12158,7 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C44" t="s">
         <v>592</v>
@@ -12194,7 +12191,7 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -12255,7 +12252,7 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C52" t="s">
         <v>598</v>
@@ -12333,7 +12330,7 @@
         <v>25</v>
       </c>
       <c r="B58" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C58" t="s">
         <v>603</v>
@@ -12347,7 +12344,7 @@
         <v>25</v>
       </c>
       <c r="B59" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C59" t="s">
         <v>604</v>
@@ -12361,7 +12358,7 @@
         <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C60" t="s">
         <v>605</v>
@@ -12375,7 +12372,7 @@
         <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C61" t="s">
         <v>589</v>
@@ -12406,7 +12403,7 @@
         <v>25</v>
       </c>
       <c r="B63" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C63" t="s">
         <v>69</v>
@@ -12420,7 +12417,7 @@
         <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C64" t="s">
         <v>607</v>
@@ -12434,7 +12431,7 @@
         <v>25</v>
       </c>
       <c r="B65" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C65" t="s">
         <v>608</v>
@@ -12448,7 +12445,7 @@
         <v>25</v>
       </c>
       <c r="B66" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
@@ -12462,7 +12459,7 @@
         <v>25</v>
       </c>
       <c r="B67" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C67" t="s">
         <v>609</v>
@@ -12476,7 +12473,7 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C68" t="s">
         <v>610</v>
@@ -12512,7 +12509,7 @@
         <v>33</v>
       </c>
       <c r="B71" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C71" t="s">
         <v>612</v>
@@ -12526,7 +12523,7 @@
         <v>33</v>
       </c>
       <c r="B72" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C72" t="s">
         <v>607</v>
@@ -12540,7 +12537,7 @@
         <v>33</v>
       </c>
       <c r="B73" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C73" t="s">
         <v>613</v>
@@ -12554,7 +12551,7 @@
         <v>33</v>
       </c>
       <c r="B74" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C74" t="s">
         <v>577</v>
@@ -12568,7 +12565,7 @@
         <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C75" t="s">
         <v>169</v>
@@ -12582,7 +12579,7 @@
         <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C76" t="s">
         <v>610</v>
@@ -12596,7 +12593,7 @@
         <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C77" t="s">
         <v>614</v>
@@ -12610,7 +12607,7 @@
         <v>33</v>
       </c>
       <c r="B78" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C78" t="s">
         <v>615</v>
@@ -12636,10 +12633,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" t="s">
         <v>646</v>
-      </c>
-      <c r="B1" t="s">
-        <v>647</v>
       </c>
       <c r="E1" t="s">
         <v>12</v>
@@ -12650,7 +12647,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12658,7 +12655,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12683,7 +12680,7 @@
         <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12722,7 +12719,7 @@
         <v>163</v>
       </c>
       <c r="C8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D8" t="s">
         <v>369</v>
@@ -12744,13 +12741,13 @@
         <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D10" t="s">
         <v>553</v>
       </c>
       <c r="E10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -12761,7 +12758,7 @@
         <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D11" t="s">
         <v>139</v>
@@ -12775,7 +12772,7 @@
         <v>281</v>
       </c>
       <c r="C12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D12" t="s">
         <v>369</v>
@@ -12794,13 +12791,13 @@
         <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D14" t="s">
         <v>263</v>
       </c>
       <c r="E14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -12811,7 +12808,7 @@
         <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D15" t="s">
         <v>373</v>
@@ -12825,7 +12822,7 @@
         <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D16" t="s">
         <v>136</v>
@@ -12845,7 +12842,7 @@
         <v>344</v>
       </c>
       <c r="E17" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12856,7 +12853,7 @@
         <v>250</v>
       </c>
       <c r="C18" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D18" t="s">
         <v>373</v>
@@ -12870,7 +12867,7 @@
         <v>428</v>
       </c>
       <c r="C19" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D19" t="s">
         <v>136</v>
@@ -12886,7 +12883,7 @@
         <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C21" t="s">
         <v>149</v>
@@ -12895,7 +12892,7 @@
         <v>333</v>
       </c>
       <c r="E21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12903,7 +12900,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C22" t="s">
         <v>315</v>
@@ -12917,7 +12914,7 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C23" t="s">
         <v>313</v>
@@ -12931,10 +12928,10 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D24" t="s">
         <v>227</v>
@@ -12942,10 +12939,10 @@
     </row>
     <row r="25" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>658</v>
+      </c>
+      <c r="B25" t="s">
         <v>659</v>
-      </c>
-      <c r="B25" t="s">
-        <v>660</v>
       </c>
       <c r="E25" t="s">
         <v>12</v>
@@ -12956,7 +12953,7 @@
         <v>17</v>
       </c>
       <c r="B26" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -12964,7 +12961,7 @@
         <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -12989,7 +12986,7 @@
         <v>323</v>
       </c>
       <c r="E29" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -12997,10 +12994,10 @@
         <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C30" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D30" t="s">
         <v>71</v>
@@ -13011,10 +13008,10 @@
         <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C31" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D31" t="s">
         <v>165</v>
@@ -13025,10 +13022,10 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C32" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D32" t="s">
         <v>227</v>
@@ -13039,7 +13036,7 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C33" t="s">
         <v>91</v>
@@ -13048,7 +13045,7 @@
         <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -13056,10 +13053,10 @@
         <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D34" t="s">
         <v>110</v>
@@ -13070,10 +13067,10 @@
         <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C35" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D35" t="s">
         <v>104</v>
@@ -13084,10 +13081,10 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C36" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D36" t="s">
         <v>373</v>
@@ -13112,10 +13109,10 @@
         <v>622</v>
       </c>
       <c r="D38" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E38" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -13123,10 +13120,10 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="C39" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D39" t="s">
         <v>487</v>
@@ -13137,10 +13134,10 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C40" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D40" t="s">
         <v>487</v>
@@ -13151,10 +13148,10 @@
         <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="C41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D41" t="s">
         <v>119</v>
@@ -13179,7 +13176,7 @@
         <v>302</v>
       </c>
       <c r="E43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -13187,10 +13184,10 @@
         <v>25</v>
       </c>
       <c r="B44" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C44" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D44" t="s">
         <v>60</v>
@@ -13201,10 +13198,10 @@
         <v>25</v>
       </c>
       <c r="B45" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C45" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D45" t="s">
         <v>373</v>
@@ -13215,10 +13212,10 @@
         <v>25</v>
       </c>
       <c r="B46" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C46" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D46" t="s">
         <v>380</v>
@@ -13229,10 +13226,10 @@
         <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D47" t="s">
         <v>143</v>
@@ -13243,7 +13240,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C48" t="s">
         <v>204</v>
@@ -13252,7 +13249,7 @@
         <v>302</v>
       </c>
       <c r="E48" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13260,7 +13257,7 @@
         <v>25</v>
       </c>
       <c r="B49" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C49" t="s">
         <v>208</v>
@@ -13274,7 +13271,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C50" t="s">
         <v>208</v>
@@ -13288,7 +13285,7 @@
         <v>25</v>
       </c>
       <c r="B51" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C51" t="s">
         <v>208</v>
@@ -13302,10 +13299,10 @@
         <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C52" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D52" t="s">
         <v>641</v>
@@ -13325,7 +13322,7 @@
         <v>302</v>
       </c>
       <c r="E53" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -13333,10 +13330,10 @@
         <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C54" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D54" t="s">
         <v>227</v>
@@ -13347,10 +13344,10 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D55" t="s">
         <v>373</v>
@@ -13361,10 +13358,10 @@
         <v>25</v>
       </c>
       <c r="B56" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C56" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D56" t="s">
         <v>136</v>
@@ -13375,10 +13372,10 @@
         <v>25</v>
       </c>
       <c r="B57" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C57" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D57" t="s">
         <v>227</v>
@@ -13394,7 +13391,7 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C59" t="s">
         <v>471</v>
@@ -13403,7 +13400,7 @@
         <v>302</v>
       </c>
       <c r="E59" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -13411,10 +13408,10 @@
         <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C60" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D60" t="s">
         <v>227</v>
@@ -13425,7 +13422,7 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C61" t="s">
         <v>98</v>
@@ -13439,10 +13436,10 @@
         <v>33</v>
       </c>
       <c r="B62" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C62" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D62" t="s">
         <v>143</v>
@@ -13453,10 +13450,10 @@
         <v>33</v>
       </c>
       <c r="B63" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="C63" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D63" t="s">
         <v>373</v>
@@ -13476,7 +13473,7 @@
         <v>104</v>
       </c>
       <c r="E64" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -13484,10 +13481,10 @@
         <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C65" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D65" t="s">
         <v>373</v>
@@ -13498,10 +13495,10 @@
         <v>33</v>
       </c>
       <c r="B66" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C66" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D66" t="s">
         <v>567</v>
@@ -13512,10 +13509,10 @@
         <v>33</v>
       </c>
       <c r="B67" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C67" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D67" t="s">
         <v>342</v>
@@ -13526,7 +13523,7 @@
         <v>33</v>
       </c>
       <c r="B68" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C68" t="s">
         <v>83</v>
@@ -13540,7 +13537,7 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C69" t="s">
         <v>83</v>
@@ -13551,10 +13548,10 @@
     </row>
     <row r="70" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>680</v>
+      </c>
+      <c r="B70" t="s">
         <v>681</v>
-      </c>
-      <c r="B70" t="s">
-        <v>682</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -13565,7 +13562,7 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -13587,7 +13584,7 @@
         <v>107</v>
       </c>
       <c r="E73" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -13609,15 +13606,15 @@
         <v>109</v>
       </c>
       <c r="E75" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>684</v>
+      </c>
+      <c r="B76" t="s">
         <v>685</v>
-      </c>
-      <c r="B76" t="s">
-        <v>686</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -13645,7 +13642,7 @@
         <v>117</v>
       </c>
       <c r="E78" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -13667,7 +13664,7 @@
         <v>627</v>
       </c>
       <c r="E80" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -13689,7 +13686,7 @@
         <v>643</v>
       </c>
       <c r="E82" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -13701,8 +13698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="E499" sqref="E499"/>
+    <sheetView topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="H502" sqref="H502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13713,10 +13710,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" t="s">
         <v>688</v>
-      </c>
-      <c r="B1" t="s">
-        <v>689</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -13749,10 +13746,10 @@
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B4" t="s">
         <v>690</v>
-      </c>
-      <c r="B4" t="s">
-        <v>691</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -13807,13 +13804,13 @@
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>691</v>
+      </c>
+      <c r="B9" t="s">
         <v>692</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E9" t="s">
         <v>693</v>
-      </c>
-      <c r="E9" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13821,7 +13818,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -13840,13 +13837,13 @@
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D12" t="s">
         <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13854,10 +13851,10 @@
         <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D13" t="s">
         <v>553</v>
@@ -13868,10 +13865,10 @@
         <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D14" t="s">
         <v>553</v>
@@ -13882,10 +13879,10 @@
         <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D15" t="s">
         <v>553</v>
@@ -13899,7 +13896,7 @@
         <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D16" t="s">
         <v>553</v>
@@ -13918,13 +13915,13 @@
         <v>233</v>
       </c>
       <c r="C18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D18" t="s">
         <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -13935,7 +13932,7 @@
         <v>237</v>
       </c>
       <c r="C19" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D19" t="s">
         <v>344</v>
@@ -13949,7 +13946,7 @@
         <v>325</v>
       </c>
       <c r="C20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D20" t="s">
         <v>344</v>
@@ -13963,7 +13960,7 @@
         <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D21" t="s">
         <v>132</v>
@@ -13974,10 +13971,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C22" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D22" t="s">
         <v>132</v>
@@ -13991,13 +13988,13 @@
         <v>329</v>
       </c>
       <c r="C23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D23" t="s">
         <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -14008,7 +14005,7 @@
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D24" t="s">
         <v>344</v>
@@ -14022,7 +14019,7 @@
         <v>331</v>
       </c>
       <c r="C25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D25" t="s">
         <v>344</v>
@@ -14033,10 +14030,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C26" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D26" t="s">
         <v>344</v>
@@ -14047,10 +14044,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C27" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D27" t="s">
         <v>242</v>
@@ -14069,13 +14066,13 @@
         <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D29" t="s">
         <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -14086,10 +14083,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D30" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -14100,10 +14097,10 @@
         <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D31" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -14111,10 +14108,10 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C32" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D32" t="s">
         <v>132</v>
@@ -14125,10 +14122,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C33" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D33" t="s">
         <v>132</v>
@@ -14142,7 +14139,7 @@
         <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D34" t="s">
         <v>344</v>
@@ -14156,7 +14153,7 @@
         <v>182</v>
       </c>
       <c r="C35" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D35" t="s">
         <v>344</v>
@@ -14170,7 +14167,7 @@
         <v>183</v>
       </c>
       <c r="C36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D36" t="s">
         <v>386</v>
@@ -14181,10 +14178,10 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D37" t="s">
         <v>386</v>
@@ -14192,13 +14189,13 @@
     </row>
     <row r="38" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>716</v>
+      </c>
+      <c r="B38" t="s">
         <v>717</v>
       </c>
-      <c r="B38" t="s">
-        <v>718</v>
-      </c>
       <c r="E38" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -14223,7 +14220,7 @@
         <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -14239,13 +14236,13 @@
         <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D42" t="s">
         <v>573</v>
       </c>
       <c r="E42" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -14256,13 +14253,13 @@
         <v>329</v>
       </c>
       <c r="C43" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D43" t="s">
         <v>573</v>
       </c>
       <c r="E43" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -14278,13 +14275,13 @@
         <v>103</v>
       </c>
       <c r="C45" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D45" t="s">
         <v>573</v>
       </c>
       <c r="E45" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -14292,24 +14289,24 @@
         <v>30</v>
       </c>
       <c r="B46" t="s">
+        <v>720</v>
+      </c>
+      <c r="C46" t="s">
         <v>721</v>
-      </c>
-      <c r="C46" t="s">
-        <v>722</v>
       </c>
       <c r="D46" t="s">
         <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>723</v>
+      </c>
+      <c r="B47" t="s">
         <v>724</v>
-      </c>
-      <c r="B47" t="s">
-        <v>725</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
@@ -14342,10 +14339,10 @@
     </row>
     <row r="50" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>725</v>
+      </c>
+      <c r="B50" t="s">
         <v>726</v>
-      </c>
-      <c r="B50" t="s">
-        <v>727</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
@@ -14400,10 +14397,10 @@
     </row>
     <row r="55" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>727</v>
+      </c>
+      <c r="B55" t="s">
         <v>728</v>
-      </c>
-      <c r="B55" t="s">
-        <v>729</v>
       </c>
       <c r="E55" t="s">
         <v>12</v>
@@ -14414,7 +14411,7 @@
         <v>17</v>
       </c>
       <c r="B56" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -14422,7 +14419,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -14447,7 +14444,7 @@
         <v>71</v>
       </c>
       <c r="E59" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -14458,7 +14455,7 @@
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D60" t="s">
         <v>104</v>
@@ -14472,7 +14469,7 @@
         <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D61" t="s">
         <v>323</v>
@@ -14494,10 +14491,10 @@
         <v>448</v>
       </c>
       <c r="D63" t="s">
+        <v>732</v>
+      </c>
+      <c r="E63" t="s">
         <v>733</v>
-      </c>
-      <c r="E63" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -14525,7 +14522,7 @@
         <v>603</v>
       </c>
       <c r="D65" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -14542,7 +14539,7 @@
         <v>323</v>
       </c>
       <c r="E66" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -14553,7 +14550,7 @@
         <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D67" t="s">
         <v>386</v>
@@ -14567,7 +14564,7 @@
         <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D68" t="s">
         <v>113</v>
@@ -14587,7 +14584,7 @@
         <v>211</v>
       </c>
       <c r="E69" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -14595,10 +14592,10 @@
         <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C70" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D70" t="s">
         <v>242</v>
@@ -14609,10 +14606,10 @@
         <v>25</v>
       </c>
       <c r="B71" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C71" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D71" t="s">
         <v>235</v>
@@ -14632,7 +14629,7 @@
         <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -14643,7 +14640,7 @@
         <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D73" t="s">
         <v>210</v>
@@ -14657,7 +14654,7 @@
         <v>68</v>
       </c>
       <c r="C74" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D74" t="s">
         <v>71</v>
@@ -14677,7 +14674,7 @@
         <v>71</v>
       </c>
       <c r="E75" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -14685,13 +14682,13 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C76" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D76" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -14699,10 +14696,10 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C77" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D77" t="s">
         <v>132</v>
@@ -14722,7 +14719,7 @@
         <v>302</v>
       </c>
       <c r="E78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -14733,7 +14730,7 @@
         <v>334</v>
       </c>
       <c r="C79" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D79" t="s">
         <v>573</v>
@@ -14747,10 +14744,10 @@
         <v>335</v>
       </c>
       <c r="C80" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D80" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -14767,7 +14764,7 @@
         <v>323</v>
       </c>
       <c r="E81" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -14775,10 +14772,10 @@
         <v>25</v>
       </c>
       <c r="B82" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C82" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D82" t="s">
         <v>81</v>
@@ -14789,10 +14786,10 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C83" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D83" t="s">
         <v>178</v>
@@ -14817,7 +14814,7 @@
         <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -14828,7 +14825,7 @@
         <v>250</v>
       </c>
       <c r="C86" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D86" t="s">
         <v>178</v>
@@ -14853,10 +14850,10 @@
         <v>33</v>
       </c>
       <c r="B88" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C88" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D88" t="s">
         <v>373</v>
@@ -14867,7 +14864,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C89" t="s">
         <v>213</v>
@@ -14881,10 +14878,10 @@
         <v>33</v>
       </c>
       <c r="B90" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C90" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D90" t="s">
         <v>143</v>
@@ -14904,7 +14901,7 @@
         <v>71</v>
       </c>
       <c r="E91" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -14915,7 +14912,7 @@
         <v>237</v>
       </c>
       <c r="C92" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D92" t="s">
         <v>178</v>
@@ -14943,7 +14940,7 @@
         <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D94" t="s">
         <v>23</v>
@@ -14954,7 +14951,7 @@
         <v>33</v>
       </c>
       <c r="B95" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C95" t="s">
         <v>213</v>
@@ -14968,10 +14965,10 @@
         <v>33</v>
       </c>
       <c r="B96" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C96" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D96" t="s">
         <v>58</v>
@@ -14982,10 +14979,10 @@
         <v>33</v>
       </c>
       <c r="B97" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C97" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D97" t="s">
         <v>242</v>
@@ -14996,7 +14993,7 @@
         <v>30</v>
       </c>
       <c r="B98" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C98" t="s">
         <v>471</v>
@@ -15005,7 +15002,7 @@
         <v>230</v>
       </c>
       <c r="E98" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -15013,13 +15010,13 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C99" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D99" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -15027,10 +15024,10 @@
         <v>33</v>
       </c>
       <c r="B100" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C100" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D100" t="s">
         <v>60</v>
@@ -15041,10 +15038,10 @@
         <v>33</v>
       </c>
       <c r="B101" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C101" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D101" t="s">
         <v>102</v>
@@ -15055,10 +15052,10 @@
         <v>33</v>
       </c>
       <c r="B102" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C102" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D102" t="s">
         <v>242</v>
@@ -15066,10 +15063,10 @@
     </row>
     <row r="103" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>752</v>
+      </c>
+      <c r="B103" t="s">
         <v>753</v>
-      </c>
-      <c r="B103" t="s">
-        <v>754</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -15080,7 +15077,7 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -15113,10 +15110,10 @@
         <v>55</v>
       </c>
       <c r="B107" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C107" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D107" t="s">
         <v>380</v>
@@ -15130,7 +15127,7 @@
         <v>134</v>
       </c>
       <c r="C108" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D108" t="s">
         <v>562</v>
@@ -15144,7 +15141,7 @@
         <v>137</v>
       </c>
       <c r="C109" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D109" t="s">
         <v>333</v>
@@ -15158,10 +15155,10 @@
         <v>305</v>
       </c>
       <c r="C110" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D110" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -15169,10 +15166,10 @@
         <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C111" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D111" t="s">
         <v>353</v>
@@ -15197,7 +15194,7 @@
         <v>205</v>
       </c>
       <c r="E113" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -15208,7 +15205,7 @@
         <v>82</v>
       </c>
       <c r="C114" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D114" t="s">
         <v>150</v>
@@ -15222,7 +15219,7 @@
         <v>84</v>
       </c>
       <c r="C115" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D115" t="s">
         <v>344</v>
@@ -15239,10 +15236,10 @@
         <v>95</v>
       </c>
       <c r="D116" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E116" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -15253,10 +15250,10 @@
         <v>34</v>
       </c>
       <c r="C117" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D117" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -15267,7 +15264,7 @@
         <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D118" t="s">
         <v>132</v>
@@ -15283,7 +15280,7 @@
         <v>30</v>
       </c>
       <c r="B120" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C120" t="s">
         <v>262</v>
@@ -15292,7 +15289,7 @@
         <v>165</v>
       </c>
       <c r="E120" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -15300,10 +15297,10 @@
         <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C121" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D121" t="s">
         <v>165</v>
@@ -15314,10 +15311,10 @@
         <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C122" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D122" t="s">
         <v>165</v>
@@ -15328,7 +15325,7 @@
         <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C123" t="s">
         <v>436</v>
@@ -15351,7 +15348,7 @@
         <v>205</v>
       </c>
       <c r="E124" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -15362,7 +15359,7 @@
         <v>106</v>
       </c>
       <c r="C125" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D125" t="s">
         <v>353</v>
@@ -15376,7 +15373,7 @@
         <v>108</v>
       </c>
       <c r="C126" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D126" t="s">
         <v>562</v>
@@ -15390,7 +15387,7 @@
         <v>175</v>
       </c>
       <c r="C127" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D127" t="s">
         <v>333</v>
@@ -15407,10 +15404,10 @@
         <v>564</v>
       </c>
       <c r="D128" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E128" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -15421,7 +15418,7 @@
         <v>115</v>
       </c>
       <c r="C129" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D129" t="s">
         <v>102</v>
@@ -15435,7 +15432,7 @@
         <v>118</v>
       </c>
       <c r="C130" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D130" t="s">
         <v>641</v>
@@ -15446,10 +15443,10 @@
         <v>33</v>
       </c>
       <c r="B131" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C131" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D131" t="s">
         <v>641</v>
@@ -15469,7 +15466,7 @@
         <v>627</v>
       </c>
       <c r="E132" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -15477,10 +15474,10 @@
         <v>33</v>
       </c>
       <c r="B133" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C133" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D133" t="s">
         <v>32</v>
@@ -15491,13 +15488,13 @@
         <v>33</v>
       </c>
       <c r="B134" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C134" t="s">
+        <v>764</v>
+      </c>
+      <c r="D134" t="s">
         <v>765</v>
-      </c>
-      <c r="D134" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -15505,10 +15502,10 @@
         <v>33</v>
       </c>
       <c r="B135" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C135" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D135" t="s">
         <v>164</v>
@@ -15525,10 +15522,10 @@
         <v>234</v>
       </c>
       <c r="D136" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E136" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -15539,7 +15536,7 @@
         <v>65</v>
       </c>
       <c r="C137" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D137" t="s">
         <v>119</v>
@@ -15553,10 +15550,10 @@
         <v>68</v>
       </c>
       <c r="C138" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D138" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -15564,10 +15561,10 @@
         <v>33</v>
       </c>
       <c r="B139" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C139" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D139" t="s">
         <v>553</v>
@@ -15587,7 +15584,7 @@
         <v>323</v>
       </c>
       <c r="E140" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -15595,10 +15592,10 @@
         <v>33</v>
       </c>
       <c r="B141" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C141" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D141" t="s">
         <v>143</v>
@@ -15609,10 +15606,10 @@
         <v>33</v>
       </c>
       <c r="B142" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C142" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D142" t="s">
         <v>144</v>
@@ -15623,10 +15620,10 @@
         <v>33</v>
       </c>
       <c r="B143" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C143" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D143" t="s">
         <v>99</v>
@@ -15646,7 +15643,7 @@
         <v>107</v>
       </c>
       <c r="E144" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -15657,7 +15654,7 @@
         <v>334</v>
       </c>
       <c r="C145" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D145" t="s">
         <v>23</v>
@@ -15671,10 +15668,10 @@
         <v>335</v>
       </c>
       <c r="C146" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D146" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -15682,10 +15679,10 @@
         <v>33</v>
       </c>
       <c r="B147" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C147" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D147" t="s">
         <v>641</v>
@@ -15693,10 +15690,10 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>770</v>
+      </c>
+      <c r="B148" t="s">
         <v>771</v>
-      </c>
-      <c r="B148" t="s">
-        <v>772</v>
       </c>
       <c r="E148" t="s">
         <v>12</v>
@@ -15707,7 +15704,7 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -15729,7 +15726,7 @@
         <v>643</v>
       </c>
       <c r="E151" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -15737,7 +15734,7 @@
         <v>25</v>
       </c>
       <c r="B152" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C152" t="s">
         <v>603</v>
@@ -15751,13 +15748,13 @@
         <v>25</v>
       </c>
       <c r="B153" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C153" t="s">
         <v>603</v>
       </c>
       <c r="D153" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -15771,10 +15768,10 @@
         <v>229</v>
       </c>
       <c r="D154" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E154" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -15782,13 +15779,13 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C155" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D155" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -15796,10 +15793,10 @@
         <v>25</v>
       </c>
       <c r="B156" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C156" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D156" t="s">
         <v>132</v>
@@ -15816,10 +15813,10 @@
         <v>229</v>
       </c>
       <c r="D157" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E157" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -15830,7 +15827,7 @@
         <v>334</v>
       </c>
       <c r="C158" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D158" t="s">
         <v>53</v>
@@ -15844,7 +15841,7 @@
         <v>335</v>
       </c>
       <c r="C159" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D159" t="s">
         <v>487</v>
@@ -15855,7 +15852,7 @@
         <v>14</v>
       </c>
       <c r="B160" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -15864,7 +15861,7 @@
         <v>323</v>
       </c>
       <c r="E160" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -15872,7 +15869,7 @@
         <v>25</v>
       </c>
       <c r="B161" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C161" t="s">
         <v>83</v>
@@ -15886,7 +15883,7 @@
         <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C162" t="s">
         <v>83</v>
@@ -15905,7 +15902,7 @@
         <v>30</v>
       </c>
       <c r="B164" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C164" t="s">
         <v>239</v>
@@ -15914,7 +15911,7 @@
         <v>323</v>
       </c>
       <c r="E164" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -15922,10 +15919,10 @@
         <v>33</v>
       </c>
       <c r="B165" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C165" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D165" t="s">
         <v>178</v>
@@ -15936,10 +15933,10 @@
         <v>33</v>
       </c>
       <c r="B166" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C166" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D166" t="s">
         <v>302</v>
@@ -15950,7 +15947,7 @@
         <v>30</v>
       </c>
       <c r="B167" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C167" t="s">
         <v>239</v>
@@ -15959,7 +15956,7 @@
         <v>302</v>
       </c>
       <c r="E167" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -15967,7 +15964,7 @@
         <v>33</v>
       </c>
       <c r="B168" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C168" t="s">
         <v>213</v>
@@ -15981,7 +15978,7 @@
         <v>33</v>
       </c>
       <c r="B169" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C169" t="s">
         <v>213</v>
@@ -15992,10 +15989,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>781</v>
+      </c>
+      <c r="B170" t="s">
         <v>782</v>
-      </c>
-      <c r="B170" t="s">
-        <v>783</v>
       </c>
       <c r="E170" t="s">
         <v>12</v>
@@ -16006,7 +16003,7 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -16031,7 +16028,7 @@
         <v>110</v>
       </c>
       <c r="E173" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -16045,7 +16042,7 @@
         <v>135</v>
       </c>
       <c r="D174" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -16056,7 +16053,7 @@
         <v>59</v>
       </c>
       <c r="C175" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D175" t="s">
         <v>132</v>
@@ -16092,10 +16089,10 @@
         <v>239</v>
       </c>
       <c r="D178" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E178" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -16103,7 +16100,7 @@
         <v>33</v>
       </c>
       <c r="B179" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C179" t="s">
         <v>189</v>
@@ -16117,10 +16114,10 @@
         <v>33</v>
       </c>
       <c r="B180" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C180" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D180" t="s">
         <v>211</v>
@@ -16140,7 +16137,7 @@
         <v>573</v>
       </c>
       <c r="E181" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -16148,7 +16145,7 @@
         <v>33</v>
       </c>
       <c r="B182" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C182" t="s">
         <v>69</v>
@@ -16162,7 +16159,7 @@
         <v>33</v>
       </c>
       <c r="B183" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C183" t="s">
         <v>209</v>
@@ -16185,7 +16182,7 @@
         <v>573</v>
       </c>
       <c r="E184" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -16221,7 +16218,7 @@
         <v>30</v>
       </c>
       <c r="B187" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C187" t="s">
         <v>121</v>
@@ -16230,7 +16227,7 @@
         <v>165</v>
       </c>
       <c r="E187" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -16238,7 +16235,7 @@
         <v>33</v>
       </c>
       <c r="B188" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C188" t="s">
         <v>123</v>
@@ -16252,10 +16249,10 @@
         <v>33</v>
       </c>
       <c r="B189" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C189" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D189" t="s">
         <v>85</v>
@@ -16263,13 +16260,13 @@
     </row>
     <row r="190" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>788</v>
+      </c>
+      <c r="B190" t="s">
         <v>789</v>
       </c>
-      <c r="B190" t="s">
+      <c r="E190" t="s">
         <v>790</v>
-      </c>
-      <c r="E190" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -16277,7 +16274,7 @@
         <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -16302,7 +16299,7 @@
         <v>643</v>
       </c>
       <c r="E193" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -16313,7 +16310,7 @@
         <v>56</v>
       </c>
       <c r="C194" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D194" t="s">
         <v>210</v>
@@ -16324,13 +16321,13 @@
         <v>55</v>
       </c>
       <c r="B195" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C195" t="s">
+        <v>794</v>
+      </c>
+      <c r="D195" t="s">
         <v>795</v>
-      </c>
-      <c r="D195" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -16338,13 +16335,13 @@
         <v>55</v>
       </c>
       <c r="B196" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="C196" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D196" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -16352,13 +16349,13 @@
         <v>55</v>
       </c>
       <c r="B197" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C197" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D197" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -16369,7 +16366,7 @@
         <v>59</v>
       </c>
       <c r="C198" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D198" t="s">
         <v>165</v>
@@ -16380,13 +16377,13 @@
         <v>55</v>
       </c>
       <c r="B199" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="C199" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D199" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -16394,13 +16391,13 @@
         <v>55</v>
       </c>
       <c r="B200" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C200" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D200" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -16408,13 +16405,13 @@
         <v>55</v>
       </c>
       <c r="B201" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C201" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D201" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -16422,7 +16419,7 @@
         <v>5</v>
       </c>
       <c r="B202" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C202" t="s">
         <v>52</v>
@@ -16431,7 +16428,7 @@
         <v>159</v>
       </c>
       <c r="E202" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -16442,7 +16439,7 @@
         <v>163</v>
       </c>
       <c r="C203" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D203" t="s">
         <v>643</v>
@@ -16453,13 +16450,13 @@
         <v>55</v>
       </c>
       <c r="B204" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C204" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D204" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -16467,13 +16464,13 @@
         <v>55</v>
       </c>
       <c r="B205" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C205" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D205" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -16481,13 +16478,13 @@
         <v>55</v>
       </c>
       <c r="B206" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C206" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D206" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -16495,13 +16492,13 @@
         <v>55</v>
       </c>
       <c r="B207" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C207" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D207" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -16514,7 +16511,7 @@
         <v>30</v>
       </c>
       <c r="B209" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C209" t="s">
         <v>95</v>
@@ -16523,7 +16520,7 @@
         <v>71</v>
       </c>
       <c r="E209" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -16531,7 +16528,7 @@
         <v>33</v>
       </c>
       <c r="B210" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C210" t="s">
         <v>350</v>
@@ -16545,13 +16542,13 @@
         <v>33</v>
       </c>
       <c r="B211" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C211" t="s">
         <v>631</v>
       </c>
       <c r="D211" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -16559,13 +16556,13 @@
         <v>33</v>
       </c>
       <c r="B212" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C212" t="s">
         <v>632</v>
       </c>
       <c r="D212" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -16573,13 +16570,13 @@
         <v>33</v>
       </c>
       <c r="B213" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C213" t="s">
         <v>588</v>
       </c>
       <c r="D213" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -16587,7 +16584,7 @@
         <v>33</v>
       </c>
       <c r="B214" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C214" t="s">
         <v>436</v>
@@ -16601,13 +16598,13 @@
         <v>33</v>
       </c>
       <c r="B215" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C215" t="s">
         <v>589</v>
       </c>
       <c r="D215" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -16615,13 +16612,13 @@
         <v>33</v>
       </c>
       <c r="B216" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C216" t="s">
         <v>638</v>
       </c>
       <c r="D216" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -16629,13 +16626,13 @@
         <v>33</v>
       </c>
       <c r="B217" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C217" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D217" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -16652,7 +16649,7 @@
         <v>306</v>
       </c>
       <c r="E218" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -16660,7 +16657,7 @@
         <v>33</v>
       </c>
       <c r="B219" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C219" t="s">
         <v>146</v>
@@ -16674,13 +16671,13 @@
         <v>33</v>
       </c>
       <c r="B220" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C220" t="s">
         <v>619</v>
       </c>
       <c r="D220" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -16688,13 +16685,13 @@
         <v>33</v>
       </c>
       <c r="B221" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C221" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D221" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
@@ -16702,13 +16699,13 @@
         <v>33</v>
       </c>
       <c r="B222" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C222" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D222" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
@@ -16716,7 +16713,7 @@
         <v>33</v>
       </c>
       <c r="B223" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C223" t="s">
         <v>271</v>
@@ -16730,13 +16727,13 @@
         <v>33</v>
       </c>
       <c r="B224" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C224" t="s">
         <v>608</v>
       </c>
       <c r="D224" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
@@ -16744,13 +16741,13 @@
         <v>33</v>
       </c>
       <c r="B225" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C225" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D225" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
@@ -16758,13 +16755,13 @@
         <v>33</v>
       </c>
       <c r="B226" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C226" t="s">
         <v>584</v>
       </c>
       <c r="D226" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
@@ -16781,7 +16778,7 @@
         <v>323</v>
       </c>
       <c r="E227" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
@@ -16789,7 +16786,7 @@
         <v>33</v>
       </c>
       <c r="B228" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C228" t="s">
         <v>489</v>
@@ -16803,13 +16800,13 @@
         <v>33</v>
       </c>
       <c r="B229" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C229" t="s">
         <v>604</v>
       </c>
       <c r="D229" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
@@ -16817,13 +16814,13 @@
         <v>33</v>
       </c>
       <c r="B230" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C230" t="s">
         <v>626</v>
       </c>
       <c r="D230" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
@@ -16831,13 +16828,13 @@
         <v>33</v>
       </c>
       <c r="B231" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C231" t="s">
         <v>620</v>
       </c>
       <c r="D231" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
@@ -16845,10 +16842,10 @@
         <v>33</v>
       </c>
       <c r="B232" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C232" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D232" t="s">
         <v>309</v>
@@ -16859,13 +16856,13 @@
         <v>33</v>
       </c>
       <c r="B233" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C233" t="s">
         <v>583</v>
       </c>
       <c r="D233" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -16873,13 +16870,13 @@
         <v>33</v>
       </c>
       <c r="B234" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C234" t="s">
         <v>605</v>
       </c>
       <c r="D234" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -16887,13 +16884,13 @@
         <v>33</v>
       </c>
       <c r="B235" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C235" t="s">
         <v>621</v>
       </c>
       <c r="D235" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -16907,10 +16904,10 @@
         <v>95</v>
       </c>
       <c r="D236" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E236" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -16938,7 +16935,7 @@
         <v>607</v>
       </c>
       <c r="D238" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -16952,7 +16949,7 @@
         <v>610</v>
       </c>
       <c r="D239" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -16960,13 +16957,13 @@
         <v>33</v>
       </c>
       <c r="B240" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C240" t="s">
         <v>636</v>
       </c>
       <c r="D240" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -16977,7 +16974,7 @@
         <v>335</v>
       </c>
       <c r="C241" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D241" t="s">
         <v>235</v>
@@ -16994,7 +16991,7 @@
         <v>609</v>
       </c>
       <c r="D242" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -17002,13 +16999,13 @@
         <v>33</v>
       </c>
       <c r="B243" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C243" t="s">
         <v>639</v>
       </c>
       <c r="D243" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
@@ -17016,13 +17013,13 @@
         <v>33</v>
       </c>
       <c r="B244" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C244" t="s">
         <v>637</v>
       </c>
       <c r="D244" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
@@ -17030,16 +17027,16 @@
         <v>30</v>
       </c>
       <c r="B245" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C245" t="s">
         <v>70</v>
       </c>
       <c r="D245" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E245" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
@@ -17047,7 +17044,7 @@
         <v>33</v>
       </c>
       <c r="B246" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C246" t="s">
         <v>184</v>
@@ -17061,13 +17058,13 @@
         <v>33</v>
       </c>
       <c r="B247" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C247" t="s">
         <v>623</v>
       </c>
       <c r="D247" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
@@ -17075,13 +17072,13 @@
         <v>33</v>
       </c>
       <c r="B248" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C248" t="s">
         <v>624</v>
       </c>
       <c r="D248" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
@@ -17089,13 +17086,13 @@
         <v>33</v>
       </c>
       <c r="B249" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C249" t="s">
         <v>629</v>
       </c>
       <c r="D249" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
@@ -17103,7 +17100,7 @@
         <v>33</v>
       </c>
       <c r="B250" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C250" t="s">
         <v>184</v>
@@ -17117,13 +17114,13 @@
         <v>33</v>
       </c>
       <c r="B251" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C251" t="s">
         <v>630</v>
       </c>
       <c r="D251" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
@@ -17131,13 +17128,13 @@
         <v>33</v>
       </c>
       <c r="B252" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C252" t="s">
         <v>614</v>
       </c>
       <c r="D252" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
@@ -17145,21 +17142,21 @@
         <v>33</v>
       </c>
       <c r="B253" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C253" t="s">
         <v>615</v>
       </c>
       <c r="D253" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>816</v>
+      </c>
+      <c r="B254" t="s">
         <v>817</v>
-      </c>
-      <c r="B254" t="s">
-        <v>818</v>
       </c>
       <c r="E254" t="s">
         <v>12</v>
@@ -17170,7 +17167,7 @@
         <v>17</v>
       </c>
       <c r="B255" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
@@ -17192,7 +17189,7 @@
         <v>107</v>
       </c>
       <c r="E257" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
@@ -17200,10 +17197,10 @@
         <v>33</v>
       </c>
       <c r="B258" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C258" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D258" t="s">
         <v>102</v>
@@ -17214,10 +17211,10 @@
         <v>33</v>
       </c>
       <c r="B259" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C259" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D259" t="s">
         <v>102</v>
@@ -17225,10 +17222,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>822</v>
+      </c>
+      <c r="B260" t="s">
         <v>823</v>
-      </c>
-      <c r="B260" t="s">
-        <v>824</v>
       </c>
       <c r="E260" t="s">
         <v>12</v>
@@ -17239,7 +17236,7 @@
         <v>17</v>
       </c>
       <c r="B261" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
@@ -17255,16 +17252,16 @@
         <v>5</v>
       </c>
       <c r="B263" t="s">
+        <v>825</v>
+      </c>
+      <c r="C263" t="s">
         <v>826</v>
-      </c>
-      <c r="C263" t="s">
-        <v>827</v>
       </c>
       <c r="D263" t="s">
         <v>104</v>
       </c>
       <c r="E263" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
@@ -17275,7 +17272,7 @@
         <v>134</v>
       </c>
       <c r="C264" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D264" t="s">
         <v>53</v>
@@ -17289,10 +17286,10 @@
         <v>137</v>
       </c>
       <c r="C265" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D265" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
@@ -17303,10 +17300,10 @@
         <v>305</v>
       </c>
       <c r="C266" t="s">
+        <v>828</v>
+      </c>
+      <c r="D266" t="s">
         <v>829</v>
-      </c>
-      <c r="D266" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
@@ -17319,7 +17316,7 @@
         <v>14</v>
       </c>
       <c r="B268" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C268" t="s">
         <v>262</v>
@@ -17328,7 +17325,7 @@
         <v>71</v>
       </c>
       <c r="E268" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
@@ -17336,10 +17333,10 @@
         <v>25</v>
       </c>
       <c r="B269" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C269" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D269" t="s">
         <v>85</v>
@@ -17350,13 +17347,13 @@
         <v>25</v>
       </c>
       <c r="B270" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C270" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D270" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
@@ -17364,7 +17361,7 @@
         <v>25</v>
       </c>
       <c r="B271" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C271" t="s">
         <v>187</v>
@@ -17387,7 +17384,7 @@
         <v>107</v>
       </c>
       <c r="E272" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -17395,7 +17392,7 @@
         <v>25</v>
       </c>
       <c r="B273" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C273" t="s">
         <v>187</v>
@@ -17409,10 +17406,10 @@
         <v>25</v>
       </c>
       <c r="B274" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C274" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D274" t="s">
         <v>102</v>
@@ -17434,10 +17431,10 @@
         <v>564</v>
       </c>
       <c r="D276" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E276" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -17445,13 +17442,13 @@
         <v>33</v>
       </c>
       <c r="B277" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C277" t="s">
         <v>187</v>
       </c>
       <c r="D277" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -17459,7 +17456,7 @@
         <v>33</v>
       </c>
       <c r="B278" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C278" t="s">
         <v>187</v>
@@ -17479,10 +17476,10 @@
         <v>229</v>
       </c>
       <c r="D279" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E279" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -17490,13 +17487,13 @@
         <v>33</v>
       </c>
       <c r="B280" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C280" t="s">
         <v>187</v>
       </c>
       <c r="D280" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -17504,7 +17501,7 @@
         <v>33</v>
       </c>
       <c r="B281" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C281" t="s">
         <v>187</v>
@@ -17524,10 +17521,10 @@
         <v>177</v>
       </c>
       <c r="D282" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E282" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -17535,10 +17532,10 @@
         <v>33</v>
       </c>
       <c r="B283" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C283" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D283" t="s">
         <v>58</v>
@@ -17549,10 +17546,10 @@
         <v>33</v>
       </c>
       <c r="B284" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C284" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D284" t="s">
         <v>553</v>
@@ -17560,10 +17557,10 @@
     </row>
     <row r="285" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>834</v>
+      </c>
+      <c r="B285" t="s">
         <v>835</v>
-      </c>
-      <c r="B285" t="s">
-        <v>836</v>
       </c>
       <c r="E285" t="s">
         <v>12</v>
@@ -17574,7 +17571,7 @@
         <v>17</v>
       </c>
       <c r="B286" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -17607,7 +17604,7 @@
         <v>250</v>
       </c>
       <c r="C289" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D289" t="s">
         <v>373</v>
@@ -17621,7 +17618,7 @@
         <v>428</v>
       </c>
       <c r="C290" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D290" t="s">
         <v>373</v>
@@ -17646,7 +17643,7 @@
         <v>230</v>
       </c>
       <c r="E292" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -17657,7 +17654,7 @@
         <v>65</v>
       </c>
       <c r="C293" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D293" t="s">
         <v>162</v>
@@ -17671,7 +17668,7 @@
         <v>68</v>
       </c>
       <c r="C294" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D294" t="s">
         <v>147</v>
@@ -17679,10 +17676,10 @@
     </row>
     <row r="295" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>842</v>
+      </c>
+      <c r="B295" t="s">
         <v>843</v>
-      </c>
-      <c r="B295" t="s">
-        <v>844</v>
       </c>
       <c r="E295" t="s">
         <v>12</v>
@@ -17693,7 +17690,7 @@
         <v>19</v>
       </c>
       <c r="B296" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -17718,7 +17715,7 @@
         <v>104</v>
       </c>
       <c r="E298" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -17768,7 +17765,7 @@
         <v>55</v>
       </c>
       <c r="B302" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C302" t="s">
         <v>411</v>
@@ -17782,16 +17779,16 @@
         <v>5</v>
       </c>
       <c r="B303" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C303" t="s">
         <v>224</v>
       </c>
       <c r="D303" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E303" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -17799,10 +17796,10 @@
         <v>55</v>
       </c>
       <c r="B304" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C304" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D304" t="s">
         <v>168</v>
@@ -17813,10 +17810,10 @@
         <v>55</v>
       </c>
       <c r="B305" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C305" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D305" t="s">
         <v>168</v>
@@ -17827,7 +17824,7 @@
         <v>55</v>
       </c>
       <c r="B306" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="C306" t="s">
         <v>405</v>
@@ -17841,7 +17838,7 @@
         <v>55</v>
       </c>
       <c r="B307" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C307" t="s">
         <v>403</v>
@@ -17869,7 +17866,7 @@
         <v>643</v>
       </c>
       <c r="E309" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -17880,10 +17877,10 @@
         <v>237</v>
       </c>
       <c r="C310" t="s">
+        <v>850</v>
+      </c>
+      <c r="D310" t="s">
         <v>851</v>
-      </c>
-      <c r="D310" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -17894,10 +17891,10 @@
         <v>325</v>
       </c>
       <c r="C311" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D311" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -17908,7 +17905,7 @@
         <v>327</v>
       </c>
       <c r="C312" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D312" t="s">
         <v>640</v>
@@ -17919,10 +17916,10 @@
         <v>25</v>
       </c>
       <c r="B313" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="C313" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D313" t="s">
         <v>640</v>
@@ -17942,7 +17939,7 @@
         <v>211</v>
       </c>
       <c r="E314" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -17953,7 +17950,7 @@
         <v>330</v>
       </c>
       <c r="C315" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D315" t="s">
         <v>640</v>
@@ -17967,7 +17964,7 @@
         <v>331</v>
       </c>
       <c r="C316" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D316" t="s">
         <v>640</v>
@@ -17978,13 +17975,13 @@
         <v>25</v>
       </c>
       <c r="B317" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C317" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D317" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -17992,10 +17989,10 @@
         <v>25</v>
       </c>
       <c r="B318" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C318" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D318" t="s">
         <v>640</v>
@@ -18015,7 +18012,7 @@
         <v>211</v>
       </c>
       <c r="E319" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -18026,7 +18023,7 @@
         <v>250</v>
       </c>
       <c r="C320" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D320" t="s">
         <v>640</v>
@@ -18040,7 +18037,7 @@
         <v>428</v>
       </c>
       <c r="C321" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D321" t="s">
         <v>640</v>
@@ -18051,13 +18048,13 @@
         <v>25</v>
       </c>
       <c r="B322" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C322" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D322" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -18065,10 +18062,10 @@
         <v>25</v>
       </c>
       <c r="B323" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C323" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D323" t="s">
         <v>640</v>
@@ -18079,7 +18076,7 @@
         <v>14</v>
       </c>
       <c r="B324" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C324" t="s">
         <v>177</v>
@@ -18088,7 +18085,7 @@
         <v>302</v>
       </c>
       <c r="E324" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -18096,7 +18093,7 @@
         <v>25</v>
       </c>
       <c r="B325" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C325" t="s">
         <v>388</v>
@@ -18110,13 +18107,13 @@
         <v>25</v>
       </c>
       <c r="B326" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C326" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D326" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -18124,13 +18121,13 @@
         <v>25</v>
       </c>
       <c r="B327" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C327" t="s">
         <v>388</v>
       </c>
       <c r="D327" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -18138,13 +18135,13 @@
         <v>25</v>
       </c>
       <c r="B328" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C328" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D328" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -18166,7 +18163,7 @@
         <v>302</v>
       </c>
       <c r="E330" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -18177,10 +18174,10 @@
         <v>106</v>
       </c>
       <c r="C331" t="s">
+        <v>850</v>
+      </c>
+      <c r="D331" t="s">
         <v>851</v>
-      </c>
-      <c r="D331" t="s">
-        <v>852</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -18191,7 +18188,7 @@
         <v>108</v>
       </c>
       <c r="C332" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D332" t="s">
         <v>640</v>
@@ -18205,10 +18202,10 @@
         <v>175</v>
       </c>
       <c r="C333" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D333" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -18216,10 +18213,10 @@
         <v>33</v>
       </c>
       <c r="B334" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C334" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D334" t="s">
         <v>640</v>
@@ -18230,16 +18227,16 @@
         <v>30</v>
       </c>
       <c r="B335" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C335" t="s">
         <v>149</v>
       </c>
       <c r="D335" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E335" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -18250,10 +18247,10 @@
         <v>115</v>
       </c>
       <c r="C336" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D336" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -18264,7 +18261,7 @@
         <v>118</v>
       </c>
       <c r="C337" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D337" t="s">
         <v>640</v>
@@ -18275,13 +18272,13 @@
         <v>33</v>
       </c>
       <c r="B338" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C338" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D338" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -18289,10 +18286,10 @@
         <v>33</v>
       </c>
       <c r="B339" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C339" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D339" t="s">
         <v>640</v>
@@ -18300,10 +18297,10 @@
     </row>
     <row r="340" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>862</v>
+      </c>
+      <c r="B340" t="s">
         <v>863</v>
-      </c>
-      <c r="B340" t="s">
-        <v>864</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -18336,10 +18333,10 @@
     </row>
     <row r="343" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>864</v>
+      </c>
+      <c r="B343" t="s">
         <v>865</v>
-      </c>
-      <c r="B343" t="s">
-        <v>866</v>
       </c>
       <c r="E343" t="s">
         <v>12</v>
@@ -18394,10 +18391,10 @@
     </row>
     <row r="348" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>866</v>
+      </c>
+      <c r="B348" t="s">
         <v>867</v>
-      </c>
-      <c r="B348" t="s">
-        <v>868</v>
       </c>
       <c r="E348" t="s">
         <v>12</v>
@@ -18408,7 +18405,7 @@
         <v>17</v>
       </c>
       <c r="B349" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -18416,7 +18413,7 @@
         <v>19</v>
       </c>
       <c r="B350" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -18435,7 +18432,7 @@
         <v>51</v>
       </c>
       <c r="C352" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D352" t="s">
         <v>573</v>
@@ -18466,7 +18463,7 @@
         <v>59</v>
       </c>
       <c r="C354" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D354" t="s">
         <v>113</v>
@@ -18477,7 +18474,7 @@
         <v>5</v>
       </c>
       <c r="B355" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C355" t="s">
         <v>52</v>
@@ -18486,7 +18483,7 @@
         <v>323</v>
       </c>
       <c r="E355" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -18497,7 +18494,7 @@
         <v>163</v>
       </c>
       <c r="C356" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D356" t="s">
         <v>159</v>
@@ -18508,7 +18505,7 @@
         <v>55</v>
       </c>
       <c r="B357" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C357" t="s">
         <v>57</v>
@@ -18536,7 +18533,7 @@
         <v>302</v>
       </c>
       <c r="E359" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -18544,10 +18541,10 @@
         <v>25</v>
       </c>
       <c r="B360" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C360" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D360" t="s">
         <v>132</v>
@@ -18558,10 +18555,10 @@
         <v>25</v>
       </c>
       <c r="B361" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C361" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D361" t="s">
         <v>132</v>
@@ -18581,7 +18578,7 @@
         <v>205</v>
       </c>
       <c r="E362" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -18592,7 +18589,7 @@
         <v>334</v>
       </c>
       <c r="C363" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="D363" t="s">
         <v>63</v>
@@ -18606,7 +18603,7 @@
         <v>335</v>
       </c>
       <c r="C364" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D364" t="s">
         <v>625</v>
@@ -18617,16 +18614,16 @@
         <v>14</v>
       </c>
       <c r="B365" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C365" t="s">
         <v>443</v>
       </c>
       <c r="D365" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E365" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -18634,13 +18631,13 @@
         <v>25</v>
       </c>
       <c r="B366" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C366" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D366" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -18648,10 +18645,10 @@
         <v>25</v>
       </c>
       <c r="B367" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C367" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="D367" t="s">
         <v>132</v>
@@ -18659,10 +18656,10 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>876</v>
+      </c>
+      <c r="B368" t="s">
         <v>877</v>
-      </c>
-      <c r="B368" t="s">
-        <v>878</v>
       </c>
       <c r="E368" t="s">
         <v>12</v>
@@ -18673,7 +18670,7 @@
         <v>17</v>
       </c>
       <c r="B369" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -18698,7 +18695,7 @@
         <v>573</v>
       </c>
       <c r="E371" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -18739,7 +18736,7 @@
         <v>14</v>
       </c>
       <c r="B375" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C375" t="s">
         <v>174</v>
@@ -18748,7 +18745,7 @@
         <v>627</v>
       </c>
       <c r="E375" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -18756,7 +18753,7 @@
         <v>25</v>
       </c>
       <c r="B376" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C376" t="s">
         <v>308</v>
@@ -18770,10 +18767,10 @@
         <v>25</v>
       </c>
       <c r="B377" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C377" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D377" t="s">
         <v>102</v>
@@ -18793,7 +18790,7 @@
         <v>71</v>
       </c>
       <c r="E378" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -18801,7 +18798,7 @@
         <v>25</v>
       </c>
       <c r="B379" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C379" t="s">
         <v>445</v>
@@ -18815,7 +18812,7 @@
         <v>25</v>
       </c>
       <c r="B380" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C380" t="s">
         <v>295</v>
@@ -18840,10 +18837,10 @@
         <v>62</v>
       </c>
       <c r="D382" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E382" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -18868,7 +18865,7 @@
         <v>335</v>
       </c>
       <c r="C384" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D384" t="s">
         <v>132</v>
@@ -18885,7 +18882,7 @@
         <v>552</v>
       </c>
       <c r="D385" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
@@ -18896,18 +18893,18 @@
         <v>182</v>
       </c>
       <c r="C386" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D386" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>884</v>
+      </c>
+      <c r="B387" t="s">
         <v>885</v>
-      </c>
-      <c r="B387" t="s">
-        <v>886</v>
       </c>
       <c r="E387" t="s">
         <v>12</v>
@@ -18918,7 +18915,7 @@
         <v>17</v>
       </c>
       <c r="B388" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
@@ -18954,10 +18951,10 @@
         <v>134</v>
       </c>
       <c r="C391" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D391" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
@@ -18968,7 +18965,7 @@
         <v>137</v>
       </c>
       <c r="C392" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D392" t="s">
         <v>380</v>
@@ -18982,7 +18979,7 @@
         <v>305</v>
       </c>
       <c r="C393" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D393" t="s">
         <v>119</v>
@@ -18993,7 +18990,7 @@
         <v>5</v>
       </c>
       <c r="B394" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C394" t="s">
         <v>52</v>
@@ -19002,7 +18999,7 @@
         <v>573</v>
       </c>
       <c r="E394" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
@@ -19013,7 +19010,7 @@
         <v>134</v>
       </c>
       <c r="C395" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D395" t="s">
         <v>60</v>
@@ -19027,7 +19024,7 @@
         <v>137</v>
       </c>
       <c r="C396" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D396" t="s">
         <v>58</v>
@@ -19041,7 +19038,7 @@
         <v>305</v>
       </c>
       <c r="C397" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="D397" t="s">
         <v>553</v>
@@ -19066,7 +19063,7 @@
         <v>107</v>
       </c>
       <c r="E399" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
@@ -19111,7 +19108,7 @@
         <v>107</v>
       </c>
       <c r="E402" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
@@ -19136,7 +19133,7 @@
         <v>118</v>
       </c>
       <c r="C404" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D404" t="s">
         <v>102</v>
@@ -19156,7 +19153,7 @@
         <v>627</v>
       </c>
       <c r="E405" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
@@ -19167,7 +19164,7 @@
         <v>250</v>
       </c>
       <c r="C406" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D406" t="s">
         <v>102</v>
@@ -19214,7 +19211,7 @@
         <v>33</v>
       </c>
       <c r="B410" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C410" t="s">
         <v>618</v>
@@ -19228,13 +19225,13 @@
         <v>33</v>
       </c>
       <c r="B411" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C411" t="s">
         <v>618</v>
       </c>
       <c r="D411" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -19248,10 +19245,10 @@
         <v>185</v>
       </c>
       <c r="D412" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E412" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
@@ -19262,7 +19259,7 @@
         <v>192</v>
       </c>
       <c r="C413" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D413" t="s">
         <v>132</v>
@@ -19276,10 +19273,10 @@
         <v>194</v>
       </c>
       <c r="C414" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D414" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -19296,7 +19293,7 @@
         <v>627</v>
       </c>
       <c r="E415" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -19321,7 +19318,7 @@
         <v>68</v>
       </c>
       <c r="C417" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D417" t="s">
         <v>102</v>
@@ -19329,10 +19326,10 @@
     </row>
     <row r="418" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>896</v>
+      </c>
+      <c r="B418" t="s">
         <v>897</v>
-      </c>
-      <c r="B418" t="s">
-        <v>898</v>
       </c>
       <c r="E418" t="s">
         <v>12</v>
@@ -19343,7 +19340,7 @@
         <v>17</v>
       </c>
       <c r="B419" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
@@ -19351,7 +19348,7 @@
         <v>19</v>
       </c>
       <c r="B420" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
@@ -19376,7 +19373,7 @@
         <v>71</v>
       </c>
       <c r="E422" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
@@ -19387,7 +19384,7 @@
         <v>56</v>
       </c>
       <c r="C423" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D423" t="s">
         <v>71</v>
@@ -19429,7 +19426,7 @@
         <v>302</v>
       </c>
       <c r="E426" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
@@ -19440,7 +19437,7 @@
         <v>134</v>
       </c>
       <c r="C427" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D427" t="s">
         <v>235</v>
@@ -19454,7 +19451,7 @@
         <v>137</v>
       </c>
       <c r="C428" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D428" t="s">
         <v>344</v>
@@ -19479,7 +19476,7 @@
         <v>178</v>
       </c>
       <c r="E430" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
@@ -19490,7 +19487,7 @@
         <v>250</v>
       </c>
       <c r="C431" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D431" t="s">
         <v>188</v>
@@ -19504,7 +19501,7 @@
         <v>428</v>
       </c>
       <c r="C432" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D432" t="s">
         <v>188</v>
@@ -19515,7 +19512,7 @@
         <v>14</v>
       </c>
       <c r="B433" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C433" t="s">
         <v>234</v>
@@ -19524,7 +19521,7 @@
         <v>573</v>
       </c>
       <c r="E433" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
@@ -19532,7 +19529,7 @@
         <v>25</v>
       </c>
       <c r="B434" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C434" t="s">
         <v>552</v>
@@ -19546,7 +19543,7 @@
         <v>25</v>
       </c>
       <c r="B435" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C435" t="s">
         <v>552</v>
@@ -19560,7 +19557,7 @@
         <v>25</v>
       </c>
       <c r="B436" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C436" t="s">
         <v>552</v>
@@ -19583,7 +19580,7 @@
         <v>96</v>
       </c>
       <c r="E437" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
@@ -19594,7 +19591,7 @@
         <v>115</v>
       </c>
       <c r="C438" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D438" t="s">
         <v>488</v>
@@ -19608,7 +19605,7 @@
         <v>118</v>
       </c>
       <c r="C439" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="D439" t="s">
         <v>488</v>
@@ -19633,7 +19630,7 @@
         <v>302</v>
       </c>
       <c r="E441" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
@@ -19641,10 +19638,10 @@
         <v>33</v>
       </c>
       <c r="B442" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C442" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D442" t="s">
         <v>344</v>
@@ -19655,7 +19652,7 @@
         <v>33</v>
       </c>
       <c r="B443" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C443" t="s">
         <v>295</v>
@@ -19678,7 +19675,7 @@
         <v>302</v>
       </c>
       <c r="E444" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
@@ -19723,7 +19720,7 @@
         <v>302</v>
       </c>
       <c r="E447" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
@@ -19748,7 +19745,7 @@
         <v>68</v>
       </c>
       <c r="C449" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D449" t="s">
         <v>188</v>
@@ -19756,10 +19753,10 @@
     </row>
     <row r="450" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>903</v>
+      </c>
+      <c r="B450" t="s">
         <v>904</v>
-      </c>
-      <c r="B450" t="s">
-        <v>905</v>
       </c>
       <c r="E450" t="s">
         <v>12</v>
@@ -19770,7 +19767,7 @@
         <v>17</v>
       </c>
       <c r="B451" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
@@ -19789,13 +19786,13 @@
         <v>51</v>
       </c>
       <c r="C453" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D453" t="s">
         <v>616</v>
       </c>
       <c r="E453" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -19803,16 +19800,16 @@
         <v>5</v>
       </c>
       <c r="B454" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C454" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D454" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E454" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -19831,13 +19828,13 @@
         <v>130</v>
       </c>
       <c r="C456" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D456" t="s">
         <v>159</v>
       </c>
       <c r="E456" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -19853,13 +19850,13 @@
         <v>203</v>
       </c>
       <c r="C458" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D458" t="s">
         <v>132</v>
       </c>
       <c r="E458" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -19876,7 +19873,7 @@
         <v>218</v>
       </c>
       <c r="E459" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -19890,10 +19887,10 @@
         <v>121</v>
       </c>
       <c r="D460" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E460" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -19909,13 +19906,13 @@
         <v>495</v>
       </c>
       <c r="C462" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D462" t="s">
         <v>132</v>
       </c>
       <c r="E462" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -19932,7 +19929,7 @@
         <v>344</v>
       </c>
       <c r="E463" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -19940,7 +19937,7 @@
         <v>30</v>
       </c>
       <c r="B464" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C464" t="s">
         <v>22</v>
@@ -19949,15 +19946,15 @@
         <v>132</v>
       </c>
       <c r="E464" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="465" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>910</v>
+      </c>
+      <c r="B465" t="s">
         <v>911</v>
-      </c>
-      <c r="B465" t="s">
-        <v>912</v>
       </c>
       <c r="E465" t="s">
         <v>501</v>
@@ -19968,7 +19965,7 @@
         <v>17</v>
       </c>
       <c r="B466" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -19976,7 +19973,7 @@
         <v>19</v>
       </c>
       <c r="B467" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -20001,7 +19998,7 @@
         <v>8</v>
       </c>
       <c r="E469" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -20026,7 +20023,7 @@
         <v>8</v>
       </c>
       <c r="E471" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -20048,7 +20045,7 @@
         <v>8</v>
       </c>
       <c r="E473" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -20070,7 +20067,7 @@
         <v>8</v>
       </c>
       <c r="E475" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -20087,15 +20084,15 @@
         <v>8</v>
       </c>
       <c r="E476" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B477" t="s">
         <v>1152</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1153</v>
       </c>
       <c r="E477" t="s">
         <v>12</v>
@@ -20106,7 +20103,7 @@
         <v>17</v>
       </c>
       <c r="B478" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -20136,13 +20133,13 @@
         <v>25</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C481" t="s">
         <v>552</v>
       </c>
       <c r="D481" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -20150,7 +20147,7 @@
         <v>14</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C482" t="s">
         <v>552</v>
@@ -20195,7 +20192,7 @@
         <v>14</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C485" t="s">
         <v>552</v>
@@ -20209,7 +20206,7 @@
         <v>14</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C486" t="s">
         <v>234</v>
@@ -20226,7 +20223,7 @@
         <v>14</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C487" t="s">
         <v>552</v>
@@ -20240,7 +20237,7 @@
         <v>14</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C488" t="s">
         <v>552</v>
@@ -20260,7 +20257,7 @@
         <v>30</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C490" t="s">
         <v>185</v>
@@ -20269,7 +20266,7 @@
         <v>96</v>
       </c>
       <c r="E490" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -20277,7 +20274,7 @@
         <v>30</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C491" t="s">
         <v>552</v>
@@ -20291,7 +20288,7 @@
         <v>30</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C492" t="s">
         <v>552</v>
@@ -20314,7 +20311,7 @@
         <v>235</v>
       </c>
       <c r="E493" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -20333,10 +20330,10 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B495" t="s">
         <v>1159</v>
-      </c>
-      <c r="B495" t="s">
-        <v>1160</v>
       </c>
       <c r="E495" t="s">
         <v>12</v>
@@ -20347,7 +20344,7 @@
         <v>19</v>
       </c>
       <c r="B496" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -20360,13 +20357,13 @@
         <v>14</v>
       </c>
       <c r="B498" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C498" t="s">
         <v>177</v>
       </c>
       <c r="D498" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E498" t="s">
         <v>9</v>
@@ -20374,10 +20371,10 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B499" t="s">
         <v>1162</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1163</v>
       </c>
       <c r="E499" t="s">
         <v>12</v>
@@ -20388,7 +20385,7 @@
         <v>17</v>
       </c>
       <c r="B500" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -20396,7 +20393,7 @@
         <v>19</v>
       </c>
       <c r="B501" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -20423,10 +20420,10 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B504" t="s">
         <v>1166</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1167</v>
       </c>
       <c r="E504" t="s">
         <v>12</v>
@@ -20437,7 +20434,7 @@
         <v>17</v>
       </c>
       <c r="B505" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -20445,7 +20442,7 @@
         <v>19</v>
       </c>
       <c r="B506" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -20458,13 +20455,13 @@
         <v>14</v>
       </c>
       <c r="B508" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C508" t="s">
         <v>22</v>
       </c>
       <c r="D508" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E508" t="s">
         <v>9</v>
@@ -20475,21 +20472,21 @@
         <v>25</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C509" t="s">
         <v>27</v>
       </c>
       <c r="D509" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>1171</v>
       </c>
       <c r="E510" t="s">
         <v>12</v>
@@ -20500,7 +20497,7 @@
         <v>17</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -20508,7 +20505,7 @@
         <v>19</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
@@ -20528,10 +20525,10 @@
         <v>22</v>
       </c>
       <c r="D514" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E514" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
@@ -20564,10 +20561,10 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B517" s="1" t="s">
         <v>1174</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>1175</v>
       </c>
       <c r="E517" t="s">
         <v>570</v>
@@ -20578,7 +20575,7 @@
         <v>17</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
@@ -20586,7 +20583,7 @@
         <v>19</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
@@ -20609,7 +20606,7 @@
         <v>104</v>
       </c>
       <c r="E521" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
@@ -20659,7 +20656,7 @@
         <v>33</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C525" t="s">
         <v>7</v>
@@ -20670,10 +20667,10 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B526" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="E526" t="s">
         <v>570</v>
@@ -20684,7 +20681,7 @@
         <v>17</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
@@ -20692,7 +20689,7 @@
         <v>19</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
@@ -20726,10 +20723,10 @@
         <v>415</v>
       </c>
       <c r="C531" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D531" t="s">
         <v>1182</v>
-      </c>
-      <c r="D531" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
@@ -20740,10 +20737,10 @@
         <v>416</v>
       </c>
       <c r="C532" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D532" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
@@ -20754,10 +20751,10 @@
         <v>418</v>
       </c>
       <c r="C533" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D533" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
@@ -20765,13 +20762,13 @@
         <v>25</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C534" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D534" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
@@ -20779,13 +20776,13 @@
         <v>25</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C535" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D535" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
@@ -20793,13 +20790,13 @@
         <v>25</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C536" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D536" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
@@ -20807,10 +20804,10 @@
         <v>25</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C537" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D537" t="s">
         <v>8</v>
@@ -20818,10 +20815,10 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B538" t="s">
         <v>1191</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1192</v>
       </c>
       <c r="E538" t="s">
         <v>12</v>
@@ -20832,7 +20829,7 @@
         <v>17</v>
       </c>
       <c r="B539" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
@@ -20862,13 +20859,13 @@
         <v>14</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C542" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D542" t="s">
         <v>1194</v>
-      </c>
-      <c r="D542" t="s">
-        <v>1195</v>
       </c>
     </row>
   </sheetData>
@@ -20879,17 +20876,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B1" t="s">
         <v>47</v>
@@ -20903,7 +20900,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -20911,7 +20908,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -20955,10 +20952,10 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C7" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -20969,10 +20966,10 @@
         <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -20997,10 +20994,10 @@
         <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C10" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -21011,10 +21008,10 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -21025,7 +21022,7 @@
         <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C12" t="s">
         <v>208</v>
@@ -21039,10 +21036,10 @@
         <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C13" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -21053,10 +21050,10 @@
         <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -21101,7 +21098,7 @@
         <v>258</v>
       </c>
       <c r="C17" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
@@ -21115,7 +21112,7 @@
         <v>260</v>
       </c>
       <c r="C18" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D18" t="s">
         <v>8</v>
@@ -21143,7 +21140,7 @@
         <v>460</v>
       </c>
       <c r="C20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D20" t="s">
         <v>8</v>
@@ -21154,10 +21151,10 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C21" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -21168,10 +21165,10 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C22" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -21179,10 +21176,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>926</v>
+      </c>
+      <c r="B23" t="s">
         <v>927</v>
-      </c>
-      <c r="B23" t="s">
-        <v>928</v>
       </c>
       <c r="E23" t="s">
         <v>12</v>
@@ -21212,7 +21209,7 @@
         <v>130</v>
       </c>
       <c r="C26" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D26" t="s">
         <v>573</v>
@@ -21229,7 +21226,7 @@
         <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -21243,7 +21240,7 @@
         <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -21293,7 +21290,7 @@
         <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
@@ -21343,7 +21340,7 @@
         <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D36" t="s">
         <v>168</v>
@@ -21363,7 +21360,7 @@
         <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -21388,7 +21385,7 @@
         <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D39" t="s">
         <v>168</v>
@@ -21399,10 +21396,10 @@
         <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C40" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D40" t="s">
         <v>188</v>
@@ -21413,7 +21410,7 @@
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C41" t="s">
         <v>98</v>
@@ -21424,10 +21421,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>933</v>
+      </c>
+      <c r="B42" t="s">
         <v>934</v>
-      </c>
-      <c r="B42" t="s">
-        <v>935</v>
       </c>
       <c r="E42" t="s">
         <v>501</v>
@@ -21452,15 +21449,15 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>936</v>
+      </c>
+      <c r="B45" t="s">
         <v>937</v>
-      </c>
-      <c r="B45" t="s">
-        <v>938</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
@@ -21479,7 +21476,7 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -21492,7 +21489,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C49" t="s">
         <v>149</v>
@@ -21501,7 +21498,7 @@
         <v>205</v>
       </c>
       <c r="E49" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -21534,10 +21531,10 @@
     </row>
     <row r="52" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>940</v>
+      </c>
+      <c r="B52" t="s">
         <v>941</v>
-      </c>
-      <c r="B52" t="s">
-        <v>942</v>
       </c>
       <c r="E52" t="s">
         <v>12</v>
@@ -21548,7 +21545,7 @@
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -21570,7 +21567,7 @@
         <v>211</v>
       </c>
       <c r="E55" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -21603,10 +21600,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>944</v>
+      </c>
+      <c r="B58" t="s">
         <v>945</v>
-      </c>
-      <c r="B58" t="s">
-        <v>946</v>
       </c>
       <c r="E58" t="s">
         <v>12</v>
@@ -21617,7 +21614,7 @@
         <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -21625,7 +21622,7 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -21647,7 +21644,7 @@
         <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -21658,7 +21655,7 @@
         <v>330</v>
       </c>
       <c r="C63" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D63" t="s">
         <v>28</v>
@@ -21672,10 +21669,10 @@
         <v>331</v>
       </c>
       <c r="C64" t="s">
+        <v>948</v>
+      </c>
+      <c r="D64" t="s">
         <v>949</v>
-      </c>
-      <c r="D64" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -21697,7 +21694,7 @@
         <v>627</v>
       </c>
       <c r="E66" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -21708,7 +21705,7 @@
         <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D67" t="s">
         <v>380</v>
@@ -21733,10 +21730,10 @@
         <v>33</v>
       </c>
       <c r="B69" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C69" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D69" t="s">
         <v>380</v>
@@ -21744,10 +21741,10 @@
     </row>
     <row r="70" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>952</v>
+      </c>
+      <c r="B70" t="s">
         <v>953</v>
-      </c>
-      <c r="B70" t="s">
-        <v>954</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
@@ -21758,7 +21755,7 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -21791,7 +21788,7 @@
         <v>330</v>
       </c>
       <c r="C74" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D74" t="s">
         <v>172</v>
@@ -21805,7 +21802,7 @@
         <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D75" t="s">
         <v>28</v>
@@ -21813,10 +21810,10 @@
     </row>
     <row r="76" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>956</v>
+      </c>
+      <c r="B76" t="s">
         <v>957</v>
-      </c>
-      <c r="B76" t="s">
-        <v>958</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -21827,7 +21824,7 @@
         <v>17</v>
       </c>
       <c r="B77" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -21849,7 +21846,7 @@
         <v>333</v>
       </c>
       <c r="E79" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -21882,10 +21879,10 @@
     </row>
     <row r="82" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>960</v>
+      </c>
+      <c r="B82" t="s">
         <v>961</v>
-      </c>
-      <c r="B82" t="s">
-        <v>962</v>
       </c>
       <c r="E82" t="s">
         <v>12</v>
@@ -21896,7 +21893,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -21904,7 +21901,7 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -21926,7 +21923,7 @@
         <v>333</v>
       </c>
       <c r="E86" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -21945,10 +21942,10 @@
     </row>
     <row r="88" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>963</v>
+      </c>
+      <c r="B88" t="s">
         <v>964</v>
-      </c>
-      <c r="B88" t="s">
-        <v>965</v>
       </c>
       <c r="E88" t="s">
         <v>12</v>
@@ -21959,7 +21956,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -21995,7 +21992,7 @@
         <v>315</v>
       </c>
       <c r="D92" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -22009,15 +22006,15 @@
         <v>388</v>
       </c>
       <c r="D93" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>967</v>
+      </c>
+      <c r="B94" t="s">
         <v>968</v>
-      </c>
-      <c r="B94" t="s">
-        <v>969</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
@@ -22028,7 +22025,7 @@
         <v>17</v>
       </c>
       <c r="B95" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -22036,7 +22033,7 @@
         <v>19</v>
       </c>
       <c r="B96" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -22069,7 +22066,7 @@
         <v>115</v>
       </c>
       <c r="C99" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D99" t="s">
         <v>113</v>
@@ -22077,10 +22074,10 @@
     </row>
     <row r="100" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>970</v>
+      </c>
+      <c r="B100" t="s">
         <v>971</v>
-      </c>
-      <c r="B100" t="s">
-        <v>972</v>
       </c>
       <c r="E100" t="s">
         <v>12</v>
@@ -22091,7 +22088,7 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22099,7 +22096,7 @@
         <v>19</v>
       </c>
       <c r="B102" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -22121,7 +22118,7 @@
         <v>333</v>
       </c>
       <c r="E104" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -22132,7 +22129,7 @@
         <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D105" t="s">
         <v>267</v>
@@ -22140,10 +22137,10 @@
     </row>
     <row r="106" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>976</v>
+      </c>
+      <c r="B106" t="s">
         <v>977</v>
-      </c>
-      <c r="B106" t="s">
-        <v>978</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -22154,7 +22151,7 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -22162,7 +22159,7 @@
         <v>19</v>
       </c>
       <c r="B108" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -22209,7 +22206,7 @@
         <v>118</v>
       </c>
       <c r="C112" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
@@ -22220,10 +22217,10 @@
         <v>33</v>
       </c>
       <c r="B113" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C113" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
@@ -22231,10 +22228,10 @@
     </row>
     <row r="114" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>982</v>
+      </c>
+      <c r="B114" t="s">
         <v>983</v>
-      </c>
-      <c r="B114" t="s">
-        <v>984</v>
       </c>
       <c r="E114" t="s">
         <v>12</v>
@@ -22245,7 +22242,7 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -22267,7 +22264,7 @@
         <v>323</v>
       </c>
       <c r="E117" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -22278,7 +22275,7 @@
         <v>250</v>
       </c>
       <c r="C118" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D118" t="s">
         <v>188</v>
@@ -22292,7 +22289,7 @@
         <v>428</v>
       </c>
       <c r="C119" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D119" t="s">
         <v>172</v>
@@ -22300,10 +22297,10 @@
     </row>
     <row r="120" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>985</v>
+      </c>
+      <c r="B120" t="s">
         <v>986</v>
-      </c>
-      <c r="B120" t="s">
-        <v>987</v>
       </c>
       <c r="E120" t="s">
         <v>570</v>
@@ -22314,7 +22311,7 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -22322,7 +22319,7 @@
         <v>19</v>
       </c>
       <c r="B122" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -22338,7 +22335,7 @@
         <v>112</v>
       </c>
       <c r="C124" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D124" t="s">
         <v>140</v>
@@ -22355,7 +22352,7 @@
         <v>115</v>
       </c>
       <c r="C125" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
@@ -22369,7 +22366,7 @@
         <v>270</v>
       </c>
       <c r="C126" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
@@ -22383,7 +22380,7 @@
         <v>118</v>
       </c>
       <c r="C127" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
@@ -22394,10 +22391,10 @@
         <v>33</v>
       </c>
       <c r="B128" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C128" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
@@ -22405,10 +22402,10 @@
     </row>
     <row r="129" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>992</v>
+      </c>
+      <c r="B129" t="s">
         <v>993</v>
-      </c>
-      <c r="B129" t="s">
-        <v>994</v>
       </c>
       <c r="E129" t="s">
         <v>254</v>
@@ -22427,7 +22424,7 @@
         <v>19</v>
       </c>
       <c r="B131" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -22440,7 +22437,7 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C133" t="s">
         <v>70</v>
@@ -22449,7 +22446,7 @@
         <v>79</v>
       </c>
       <c r="E133" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -22457,13 +22454,13 @@
         <v>25</v>
       </c>
       <c r="B134" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C134" t="s">
+        <v>996</v>
+      </c>
+      <c r="D134" t="s">
         <v>997</v>
-      </c>
-      <c r="D134" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -22471,13 +22468,13 @@
         <v>25</v>
       </c>
       <c r="B135" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="C135" t="s">
         <v>365</v>
       </c>
       <c r="D135" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -22485,21 +22482,21 @@
         <v>25</v>
       </c>
       <c r="B136" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C136" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D136" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>999</v>
+      </c>
+      <c r="B137" t="s">
         <v>1000</v>
-      </c>
-      <c r="B137" t="s">
-        <v>1001</v>
       </c>
       <c r="E137" t="s">
         <v>254</v>
@@ -22518,7 +22515,7 @@
         <v>19</v>
       </c>
       <c r="B139" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -22562,10 +22559,10 @@
         <v>25</v>
       </c>
       <c r="B143" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C143" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D143" t="s">
         <v>181</v>
@@ -22573,10 +22570,10 @@
     </row>
     <row r="144" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B144" t="s">
         <v>1003</v>
-      </c>
-      <c r="B144" t="s">
-        <v>1004</v>
       </c>
       <c r="E144" t="s">
         <v>254</v>
@@ -22587,7 +22584,7 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -22609,7 +22606,7 @@
         <v>625</v>
       </c>
       <c r="E147" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -22620,7 +22617,7 @@
         <v>122</v>
       </c>
       <c r="C148" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D148" t="s">
         <v>8</v>
@@ -22642,10 +22639,10 @@
     </row>
     <row r="150" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B150" t="s">
         <v>1008</v>
-      </c>
-      <c r="B150" t="s">
-        <v>1009</v>
       </c>
       <c r="E150" t="s">
         <v>254</v>
@@ -22656,7 +22653,7 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -22664,40 +22661,40 @@
         <v>19</v>
       </c>
       <c r="B152" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>644</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B154" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C154" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D154" t="s">
         <v>85</v>
       </c>
       <c r="E154" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B155" t="s">
         <v>270</v>
       </c>
       <c r="C155" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D155" t="s">
         <v>181</v>
@@ -22705,16 +22702,66 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B156" t="s">
         <v>272</v>
       </c>
       <c r="C156" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D156" t="s">
-        <v>950</v>
+        <v>949</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>644</v>
+      </c>
+      <c r="B158" t="s">
+        <v>720</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D158" t="s">
+        <v>85</v>
+      </c>
+      <c r="E158" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B159" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D159" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B160" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D160" t="s">
+        <v>949</v>
       </c>
     </row>
   </sheetData>
